--- a/diccionario.xlsx
+++ b/diccionario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>excel_matriz</t>
   </si>
@@ -60,9 +60,6 @@
     <t>factura_hoja</t>
   </si>
   <si>
-    <t>C:\\Users\\zcheveste\\Desktop\\robot_estacionamiento\\facturas.xlsx</t>
-  </si>
-  <si>
     <t>observacion</t>
   </si>
   <si>
@@ -72,7 +69,13 @@
     <t>periodo</t>
   </si>
   <si>
-    <t>PERIODO 04-11-2023 AL 10-11-2023</t>
+    <t>C:\\Users\\zcheveste\\Desktop\\robot_estacionamiento\\MATRIZ ESTACIONAMIENTO INTELIGENTE.xlsx</t>
+  </si>
+  <si>
+    <t>S 25-11 a 1-12</t>
+  </si>
+  <si>
+    <t>PERIODO 25-11-2023 AL 01-12-2023</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,23 +510,23 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
